--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/cqdg-specimen</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/cqdg-specimen</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:10:57-04:00</t>
+    <t>2023-04-28T18:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,7 +436,7 @@
     <t>ageAtBiospecimenCollection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://fhir.cqdg.ca/StructureDefinition/AgeAtBioSpecimenCollection}
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/AgeAtBioSpecimenCollection}
 </t>
   </si>
   <si>
@@ -858,7 +858,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/ValueSet/cqdg-specimen-vs</t>
+    <t>https://fhir.cqdg.ca/ValueSet/cqdg-specimen-vs</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1844,7 +1844,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.6484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T18:08:06+00:00</t>
+    <t>2023-05-01T14:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T14:10:01+00:00</t>
+    <t>2023-05-01T15:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:10:49+00:00</t>
+    <t>2023-05-08T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T15:26:10+00:00</t>
+    <t>2023-05-11T13:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -858,7 +858,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://fhir.cqdg.ca/ValueSet/cqdg-specimen-vs</t>
+    <t>https://fhir.cqdg.ca/ValueSet/sample-type-tissue-source-vs</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1234,39 +1234,6 @@
   </si>
   <si>
     <t>SPM-8 and SPM-9</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.extension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.system</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.version</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.code</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.display</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.text</t>
   </si>
   <si>
     <t>Specimen.collection.fastingStatus[x]</t>
@@ -1825,7 +1792,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1834,8 +1801,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.34765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.34765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="27.23046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -7324,19 +7291,23 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>160</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>161</v>
+        <v>397</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7360,13 +7331,13 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7384,7 +7355,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7396,28 +7367,28 @@
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7436,17 +7407,15 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>167</v>
+        <v>405</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7483,19 +7452,19 @@
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>170</v>
+        <v>404</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7507,10 +7476,10 @@
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>164</v>
+        <v>407</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7521,10 +7490,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7535,7 +7504,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7544,23 +7513,19 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7608,47 +7573,47 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7660,15 +7625,17 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7717,19 +7684,19 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>164</v>
@@ -7743,14 +7710,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>141</v>
+        <v>352</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7763,24 +7730,26 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>167</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7816,19 +7785,19 @@
         <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7843,7 +7812,7 @@
         <v>133</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7854,10 +7823,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7877,23 +7846,19 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>269</v>
+        <v>412</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7917,11 +7882,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7939,7 +7906,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>274</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7954,21 +7921,21 @@
         <v>94</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>275</v>
+        <v>414</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7988,20 +7955,18 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>278</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8026,13 +7991,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>74</v>
+        <v>418</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>74</v>
+        <v>419</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8050,7 +8015,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>281</v>
+        <v>415</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8065,21 +8030,21 @@
         <v>94</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8090,7 +8055,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -8099,21 +8064,19 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>102</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>285</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>286</v>
+        <v>423</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8161,13 +8124,13 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>288</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
@@ -8176,21 +8139,21 @@
         <v>94</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>289</v>
+        <v>424</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>290</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8210,21 +8173,19 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>160</v>
+        <v>364</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>292</v>
+        <v>427</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>293</v>
+        <v>428</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8272,7 +8233,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>295</v>
+        <v>426</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8287,21 +8248,21 @@
         <v>94</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>297</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8312,7 +8273,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8321,23 +8282,19 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8385,13 +8342,13 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>304</v>
+        <v>429</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
@@ -8400,21 +8357,21 @@
         <v>94</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>305</v>
+        <v>432</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8434,23 +8391,19 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>160</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>308</v>
+        <v>161</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8498,7 +8451,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8510,35 +8463,35 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>313</v>
+        <v>164</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8547,23 +8500,21 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>407</v>
+        <v>127</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>408</v>
+        <v>167</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>409</v>
+        <v>168</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8587,13 +8538,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8611,40 +8562,40 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>406</v>
+        <v>170</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>414</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8657,22 +8608,26 @@
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>344</v>
+        <v>127</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8720,7 +8675,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8732,10 +8687,10 @@
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>418</v>
+        <v>125</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8746,10 +8701,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8760,7 +8715,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8769,16 +8724,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>161</v>
+        <v>437</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>162</v>
+        <v>438</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8829,47 +8784,47 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>163</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>74</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8881,17 +8836,15 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>167</v>
+        <v>441</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -8940,22 +8893,22 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>164</v>
+        <v>443</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8966,46 +8919,42 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>352</v>
+        <v>74</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>353</v>
+        <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
       </c>
@@ -9029,13 +8978,13 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9053,36 +9002,36 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>74</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9105,13 +9054,13 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>160</v>
+        <v>375</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9162,7 +9111,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9177,21 +9126,21 @@
         <v>94</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>74</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9214,13 +9163,13 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>184</v>
+        <v>375</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9247,13 +9196,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>429</v>
+        <v>74</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>430</v>
+        <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9271,7 +9220,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9286,21 +9235,21 @@
         <v>94</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>252</v>
+        <v>458</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>74</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9311,7 +9260,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9323,13 +9272,13 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9356,13 +9305,13 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>74</v>
+        <v>465</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9380,13 +9329,13 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
@@ -9395,21 +9344,21 @@
         <v>94</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>436</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9420,7 +9369,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9429,19 +9378,23 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9465,13 +9418,13 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>74</v>
+        <v>473</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>74</v>
+        <v>474</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -9489,13 +9442,13 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
@@ -9504,21 +9457,21 @@
         <v>94</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>74</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9541,13 +9494,13 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>344</v>
+        <v>477</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>441</v>
+        <v>48</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9598,7 +9551,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9613,1222 +9566,13 @@
         <v>94</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L80" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$70</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T13:00:33+00:00</t>
+    <t>2023-05-11T21:57:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -430,20 +433,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Specimen.extension:ageAtBiospecimenCollection</t>
-  </si>
-  <si>
-    <t>ageAtBiospecimenCollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/AgeAtBioSpecimenCollection}
+    <t>Specimen.extension:ageAt</t>
+  </si>
+  <si>
+    <t>ageAt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/AgeAtEvent}
 </t>
   </si>
   <si>
-    <t>Ferlab.bio Extension/age-at-biospecimen-collection</t>
-  </si>
-  <si>
-    <t>Age At Bio Specimen Collection Extension</t>
+    <t>Age at event</t>
+  </si>
+  <si>
+    <t>Age at the time of medical consultation</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1624,6 +1627,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1801,9 +1819,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.44921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.23046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1811,7 +1829,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.8515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1960,7 +1978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -2069,7 +2087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>81</v>
       </c>
@@ -2180,7 +2198,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>89</v>
       </c>
@@ -2289,7 +2307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>95</v>
       </c>
@@ -2400,7 +2418,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>101</v>
       </c>
@@ -2511,7 +2529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>110</v>
       </c>
@@ -2622,7 +2640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>118</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>126</v>
       </c>
@@ -2840,7 +2858,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>134</v>
       </c>
@@ -2861,7 +2879,7 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
@@ -2951,7 +2969,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>140</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>147</v>
       </c>
@@ -3171,7 +3189,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>156</v>
       </c>
@@ -3282,7 +3300,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>158</v>
       </c>
@@ -3391,7 +3409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>165</v>
       </c>
@@ -3502,7 +3520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>171</v>
       </c>
@@ -3615,7 +3633,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>182</v>
       </c>
@@ -3728,7 +3746,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>194</v>
       </c>
@@ -3841,7 +3859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>205</v>
       </c>
@@ -3952,7 +3970,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>214</v>
       </c>
@@ -4061,7 +4079,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>222</v>
       </c>
@@ -4172,7 +4190,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>231</v>
       </c>
@@ -4281,7 +4299,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>236</v>
       </c>
@@ -4392,7 +4410,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>245</v>
       </c>
@@ -4503,7 +4521,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>255</v>
       </c>
@@ -4612,7 +4630,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>256</v>
       </c>
@@ -4723,7 +4741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>257</v>
       </c>
@@ -4836,7 +4854,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>266</v>
       </c>
@@ -4945,7 +4963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>267</v>
       </c>
@@ -5056,7 +5074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>268</v>
       </c>
@@ -5167,7 +5185,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>277</v>
       </c>
@@ -5278,7 +5296,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>284</v>
       </c>
@@ -5389,7 +5407,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>291</v>
       </c>
@@ -5500,7 +5518,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>298</v>
       </c>
@@ -5613,7 +5631,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>307</v>
       </c>
@@ -5726,7 +5744,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>315</v>
       </c>
@@ -5837,7 +5855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>322</v>
       </c>
@@ -5946,7 +5964,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>329</v>
       </c>
@@ -6057,7 +6075,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>335</v>
       </c>
@@ -6168,7 +6186,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>343</v>
       </c>
@@ -6277,7 +6295,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>349</v>
       </c>
@@ -6386,7 +6404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>350</v>
       </c>
@@ -6497,7 +6515,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>351</v>
       </c>
@@ -6610,7 +6628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>356</v>
       </c>
@@ -6719,7 +6737,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>363</v>
       </c>
@@ -6828,7 +6846,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>370</v>
       </c>
@@ -6937,7 +6955,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>374</v>
       </c>
@@ -7046,7 +7064,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>380</v>
       </c>
@@ -7155,7 +7173,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>387</v>
       </c>
@@ -7266,7 +7284,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>395</v>
       </c>
@@ -7379,7 +7397,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>404</v>
       </c>
@@ -7488,7 +7506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>408</v>
       </c>
@@ -7597,7 +7615,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>409</v>
       </c>
@@ -7708,7 +7726,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>410</v>
       </c>
@@ -7821,7 +7839,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>411</v>
       </c>
@@ -7930,7 +7948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>415</v>
       </c>
@@ -8039,7 +8057,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>420</v>
       </c>
@@ -8148,7 +8166,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>426</v>
       </c>
@@ -8257,7 +8275,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>429</v>
       </c>
@@ -8366,7 +8384,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>433</v>
       </c>
@@ -8475,7 +8493,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>434</v>
       </c>
@@ -8586,7 +8604,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>435</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>436</v>
       </c>
@@ -8808,7 +8826,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>440</v>
       </c>
@@ -8917,7 +8935,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>444</v>
       </c>
@@ -9026,7 +9044,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>450</v>
       </c>
@@ -9135,7 +9153,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>455</v>
       </c>
@@ -9244,7 +9262,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>460</v>
       </c>
@@ -9353,7 +9371,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>468</v>
       </c>
@@ -9466,7 +9484,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>476</v>
       </c>
@@ -9576,6 +9594,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM70">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI69">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T21:57:42+00:00</t>
+    <t>2023-05-12T12:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T16:12:28+00:00</t>
+    <t>2023-10-16T18:33:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>A sample to be used for analysis.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Role[classCode=SPEC]</t>
@@ -1841,10 +1845,10 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>35</v>
@@ -1855,10 +1859,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1869,7 +1873,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -1878,19 +1882,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1940,13 +1944,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -1966,10 +1970,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1980,7 +1984,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -1989,16 +1993,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2049,19 +2053,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2075,10 +2079,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2089,28 +2093,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2160,19 +2164,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -2186,10 +2190,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2200,7 +2204,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -2212,16 +2216,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2247,13 +2251,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -2271,19 +2275,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2297,21 +2301,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -2323,16 +2327,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2382,22 +2386,22 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>35</v>
@@ -2408,14 +2412,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2434,16 +2438,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2493,7 +2497,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2508,7 +2512,7 @@
         <v>35</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>35</v>
@@ -2519,10 +2523,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2545,13 +2549,13 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2590,17 +2594,17 @@
         <v>35</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2612,7 +2616,7 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -2626,13 +2630,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>35</v>
@@ -2642,10 +2646,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>35</v>
@@ -2654,13 +2658,13 @@
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2711,7 +2715,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2720,10 +2724,10 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -2737,14 +2741,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2757,25 +2761,25 @@
         <v>35</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>35</v>
@@ -2824,7 +2828,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2836,10 +2840,10 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>35</v>
@@ -2850,10 +2854,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2861,7 +2865,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -2873,16 +2877,16 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2921,17 +2925,17 @@
         <v>35</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2943,37 +2947,37 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
@@ -2982,16 +2986,16 @@
         <v>35</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3042,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3054,24 +3058,24 @@
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3082,7 +3086,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -3094,13 +3098,13 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3151,13 +3155,13 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
@@ -3166,7 +3170,7 @@
         <v>35</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>35</v>
@@ -3177,14 +3181,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3203,16 +3207,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3250,19 +3254,19 @@
         <v>35</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -3274,10 +3278,10 @@
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>35</v>
@@ -3288,10 +3292,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3302,31 +3306,31 @@
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -3351,13 +3355,13 @@
         <v>35</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>35</v>
@@ -3375,36 +3379,36 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3415,7 +3419,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
@@ -3424,22 +3428,22 @@
         <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>35</v>
@@ -3464,13 +3468,13 @@
         <v>35</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>35</v>
@@ -3488,36 +3492,36 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3525,10 +3529,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>35</v>
@@ -3537,22 +3541,22 @@
         <v>35</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>35</v>
@@ -3562,10 +3566,10 @@
         <v>35</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>35</v>
@@ -3601,36 +3605,36 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3641,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>35</v>
@@ -3650,19 +3654,19 @@
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3676,7 +3680,7 @@
         <v>35</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>35</v>
@@ -3712,36 +3716,36 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3752,7 +3756,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>35</v>
@@ -3761,16 +3765,16 @@
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3821,36 +3825,36 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3861,7 +3865,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>35</v>
@@ -3870,19 +3874,19 @@
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3932,36 +3936,36 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3972,7 +3976,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
@@ -3981,16 +3985,16 @@
         <v>35</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4041,36 +4045,36 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4081,28 +4085,28 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4128,13 +4132,13 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
@@ -4152,36 +4156,36 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4192,7 +4196,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>35</v>
@@ -4201,19 +4205,19 @@
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4239,13 +4243,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -4263,36 +4267,36 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4303,7 +4307,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -4315,13 +4319,13 @@
         <v>35</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4372,13 +4376,13 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
@@ -4387,7 +4391,7 @@
         <v>35</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>35</v>
@@ -4398,14 +4402,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4424,16 +4428,16 @@
         <v>35</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4471,19 +4475,19 @@
         <v>35</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4495,10 +4499,10 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>35</v>
@@ -4509,10 +4513,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4532,22 +4536,22 @@
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>35</v>
@@ -4596,7 +4600,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -4608,24 +4612,24 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4636,7 +4640,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>35</v>
@@ -4648,13 +4652,13 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4705,13 +4709,13 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
@@ -4720,7 +4724,7 @@
         <v>35</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>35</v>
@@ -4731,14 +4735,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4757,16 +4761,16 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4804,19 +4808,19 @@
         <v>35</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -4828,10 +4832,10 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>35</v>
@@ -4842,10 +4846,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4856,7 +4860,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>35</v>
@@ -4865,22 +4869,22 @@
         <v>35</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>35</v>
@@ -4905,11 +4909,11 @@
         <v>35</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>35</v>
@@ -4927,36 +4931,36 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4967,7 +4971,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -4976,19 +4980,19 @@
         <v>35</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5038,36 +5042,36 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5078,7 +5082,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>35</v>
@@ -5087,20 +5091,20 @@
         <v>35</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>35</v>
@@ -5149,36 +5153,36 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5189,7 +5193,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>35</v>
@@ -5198,20 +5202,20 @@
         <v>35</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>35</v>
@@ -5260,36 +5264,36 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5300,7 +5304,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>35</v>
@@ -5309,22 +5313,22 @@
         <v>35</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>35</v>
@@ -5373,36 +5377,36 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5413,7 +5417,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>35</v>
@@ -5422,22 +5426,22 @@
         <v>35</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -5486,36 +5490,36 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5526,7 +5530,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>35</v>
@@ -5535,20 +5539,20 @@
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>35</v>
@@ -5597,25 +5601,25 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>35</v>
@@ -5623,10 +5627,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5637,7 +5641,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -5646,16 +5650,16 @@
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5706,36 +5710,36 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5758,16 +5762,16 @@
         <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5817,7 +5821,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -5829,10 +5833,10 @@
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>35</v>
@@ -5843,10 +5847,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5869,16 +5873,16 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5928,7 +5932,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -5940,24 +5944,24 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5968,7 +5972,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>35</v>
@@ -5980,13 +5984,13 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6037,36 +6041,36 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6077,7 +6081,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>35</v>
@@ -6089,13 +6093,13 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6146,13 +6150,13 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>35</v>
@@ -6161,7 +6165,7 @@
         <v>35</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>35</v>
@@ -6172,14 +6176,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6198,16 +6202,16 @@
         <v>35</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6257,7 +6261,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6269,10 +6273,10 @@
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>35</v>
@@ -6283,14 +6287,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6303,25 +6307,25 @@
         <v>35</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -6370,7 +6374,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6382,10 +6386,10 @@
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>35</v>
@@ -6396,10 +6400,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6410,7 +6414,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>35</v>
@@ -6419,16 +6423,16 @@
         <v>35</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6479,36 +6483,36 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6519,7 +6523,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -6528,16 +6532,16 @@
         <v>35</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6588,36 +6592,36 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6628,7 +6632,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>35</v>
@@ -6637,16 +6641,16 @@
         <v>35</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6697,25 +6701,25 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>35</v>
@@ -6723,10 +6727,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6737,7 +6741,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -6749,13 +6753,13 @@
         <v>35</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6806,36 +6810,36 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6846,7 +6850,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>35</v>
@@ -6858,13 +6862,13 @@
         <v>35</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6891,13 +6895,13 @@
         <v>35</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>35</v>
@@ -6915,36 +6919,36 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6955,7 +6959,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>35</v>
@@ -6967,16 +6971,16 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7002,13 +7006,13 @@
         <v>35</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>35</v>
@@ -7026,36 +7030,36 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7066,7 +7070,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -7075,22 +7079,22 @@
         <v>35</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -7115,13 +7119,13 @@
         <v>35</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>35</v>
@@ -7139,19 +7143,19 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -7160,15 +7164,15 @@
         <v>35</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7191,13 +7195,13 @@
         <v>35</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7248,7 +7252,7 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7260,10 +7264,10 @@
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>35</v>
@@ -7274,10 +7278,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7288,7 +7292,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -7300,13 +7304,13 @@
         <v>35</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7357,13 +7361,13 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>35</v>
@@ -7372,7 +7376,7 @@
         <v>35</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>35</v>
@@ -7383,14 +7387,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7409,16 +7413,16 @@
         <v>35</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7468,7 +7472,7 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -7480,10 +7484,10 @@
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>35</v>
@@ -7494,14 +7498,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7514,25 +7518,25 @@
         <v>35</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -7581,7 +7585,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -7593,10 +7597,10 @@
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>35</v>
@@ -7607,10 +7611,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7621,7 +7625,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>35</v>
@@ -7633,13 +7637,13 @@
         <v>35</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7690,22 +7694,22 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>35</v>
@@ -7716,10 +7720,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7730,7 +7734,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>35</v>
@@ -7742,13 +7746,13 @@
         <v>35</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7775,13 +7779,13 @@
         <v>35</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>35</v>
@@ -7799,22 +7803,22 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>35</v>
@@ -7825,10 +7829,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7851,13 +7855,13 @@
         <v>35</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7908,7 +7912,7 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -7920,24 +7924,24 @@
         <v>35</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7948,7 +7952,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>35</v>
@@ -7960,13 +7964,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8017,22 +8021,22 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>35</v>
@@ -8043,10 +8047,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8069,13 +8073,13 @@
         <v>35</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8126,7 +8130,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8138,10 +8142,10 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>35</v>
@@ -8152,10 +8156,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8166,7 +8170,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>35</v>
@@ -8178,13 +8182,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8235,13 +8239,13 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>35</v>
@@ -8250,7 +8254,7 @@
         <v>35</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>35</v>
@@ -8261,14 +8265,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8287,16 +8291,16 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8346,7 +8350,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -8358,10 +8362,10 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>35</v>
@@ -8372,14 +8376,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8392,25 +8396,25 @@
         <v>35</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>35</v>
@@ -8459,7 +8463,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -8471,10 +8475,10 @@
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>35</v>
@@ -8485,10 +8489,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8508,16 +8512,16 @@
         <v>35</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8568,7 +8572,7 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -8580,24 +8584,24 @@
         <v>35</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8608,7 +8612,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>35</v>
@@ -8620,13 +8624,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8677,22 +8681,22 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>35</v>
@@ -8703,10 +8707,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8717,7 +8721,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>35</v>
@@ -8729,13 +8733,13 @@
         <v>35</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8762,13 +8766,13 @@
         <v>35</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>35</v>
@@ -8786,36 +8790,36 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8826,7 +8830,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>35</v>
@@ -8838,13 +8842,13 @@
         <v>35</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8895,36 +8899,36 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8935,7 +8939,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>35</v>
@@ -8947,13 +8951,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9004,36 +9008,36 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9044,7 +9048,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>35</v>
@@ -9056,13 +9060,13 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9089,13 +9093,13 @@
         <v>35</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>35</v>
@@ -9113,36 +9117,36 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9162,22 +9166,22 @@
         <v>35</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>35</v>
@@ -9202,13 +9206,13 @@
         <v>35</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>35</v>
@@ -9226,7 +9230,7 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -9238,7 +9242,7 @@
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>35</v>
@@ -9247,15 +9251,15 @@
         <v>35</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9278,13 +9282,13 @@
         <v>35</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9335,7 +9339,7 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
@@ -9347,16 +9351,16 @@
         <v>35</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:06:51+00:00</t>
+    <t>2023-11-15T18:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T18:25:48+00:00</t>
+    <t>2023-11-15T19:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T19:01:06+00:00</t>
+    <t>2023-12-04T14:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T14:59:45+00:00</t>
+    <t>2023-12-07T15:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:05:41+00:00</t>
+    <t>2024-01-17T15:25:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T15:25:58+00:00</t>
+    <t>2024-01-17T16:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:00:29+00:00</t>
+    <t>2024-01-17T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:27:10+00:00</t>
+    <t>2024-01-17T16:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T15:04:17+00:00</t>
+    <t>2024-12-18T18:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:27:33+00:00</t>
+    <t>2025-05-13T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1834,17 +1834,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.40234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.40234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.3125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1853,25 +1853,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.6953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="46.734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T18:56:15+00:00</t>
+    <t>2025-05-20T15:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T15:08:54+00:00</t>
+    <t>2025-05-21T20:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T20:08:08+00:00</t>
+    <t>2025-05-27T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:50:40+00:00</t>
+    <t>2025-05-27T17:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:52:17+00:00</t>
+    <t>2025-05-29T13:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T13:27:52+00:00</t>
+    <t>2025-06-12T13:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$59</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="423">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -811,188 +811,6 @@
   </si>
   <si>
     <t>SPM-4 and possibly SPM-5</t>
-  </si>
-  <si>
-    <t>Specimen.type.id</t>
-  </si>
-  <si>
-    <t>Specimen.type.extension</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding.id</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/ValueSet/sample-type-tissue-source-vs</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Specimen.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Specimen.subject</t>
@@ -1825,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM70"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4561,19 +4379,21 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4621,7 +4441,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4633,13 +4453,13 @@
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -4647,21 +4467,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4670,20 +4490,18 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4720,48 +4538,48 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>166</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4781,23 +4599,21 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4845,7 +4661,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4860,21 +4676,21 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4885,7 +4701,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4897,15 +4713,17 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4954,47 +4772,47 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5006,17 +4824,15 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5053,48 +4869,48 @@
         <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>172</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>20</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5114,23 +4930,19 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5154,11 +4966,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5176,7 +4990,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5188,35 +5002,35 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5225,19 +5039,19 @@
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5287,69 +5101,71 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>166</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>289</v>
+        <v>147</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5398,36 +5214,36 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5450,18 +5266,16 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5509,7 +5323,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5524,21 +5338,21 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5561,20 +5375,16 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5622,7 +5432,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5637,21 +5447,21 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5674,20 +5484,16 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5735,7 +5541,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5750,21 +5556,21 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5784,21 +5590,19 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5846,7 +5650,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5861,21 +5665,21 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>20</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5895,16 +5699,16 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5931,13 +5735,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5955,7 +5759,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5970,21 +5774,21 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5995,7 +5799,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6007,16 +5811,16 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6042,13 +5846,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6066,13 +5870,13 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
@@ -6081,13 +5885,13 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -6106,7 +5910,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6115,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>338</v>
@@ -6129,7 +5933,9 @@
       <c r="N39" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6153,13 +5959,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6183,7 +5989,7 @@
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
@@ -6192,21 +5998,21 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6217,7 +6023,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6229,7 +6035,7 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>347</v>
@@ -6286,13 +6092,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6307,15 +6113,15 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6421,10 +6227,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6532,14 +6338,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6561,10 +6367,10 @@
         <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>146</v>
@@ -6619,7 +6425,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6645,10 +6451,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6668,16 +6474,16 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>359</v>
+        <v>162</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6728,7 +6534,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6743,21 +6549,21 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6777,16 +6583,16 @@
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>366</v>
+        <v>186</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6813,13 +6619,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6837,7 +6643,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6852,21 +6658,21 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6877,7 +6683,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6886,16 +6692,16 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6946,13 +6752,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -6961,21 +6767,21 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>20</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6998,13 +6804,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>377</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7055,7 +6861,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7070,21 +6876,21 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>380</v>
+        <v>309</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7095,7 +6901,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7107,13 +6913,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7140,13 +6946,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7164,13 +6970,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -7179,21 +6985,21 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7216,17 +7022,15 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>163</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7251,13 +7055,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>393</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7275,7 +7079,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>389</v>
+        <v>165</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7287,35 +7091,35 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>166</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7324,23 +7128,21 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
+        <v>169</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7364,13 +7166,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>403</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7388,40 +7190,40 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>172</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>405</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7434,22 +7236,26 @@
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>346</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7497,7 +7303,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>297</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7509,10 +7315,10 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>409</v>
+        <v>127</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>20</v>
@@ -7523,10 +7329,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7537,7 +7343,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7546,16 +7352,16 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>163</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>164</v>
+        <v>380</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7606,47 +7412,47 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>165</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>20</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7658,17 +7464,15 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7717,22 +7521,22 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>172</v>
+        <v>382</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>166</v>
+        <v>385</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>20</v>
@@ -7743,46 +7547,42 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -7806,13 +7606,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -7830,36 +7630,36 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>20</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7882,13 +7682,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7939,7 +7739,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7954,21 +7754,21 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>20</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7991,13 +7791,13 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8024,13 +7824,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>421</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8048,7 +7848,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8063,21 +7863,21 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>254</v>
+        <v>400</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>20</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8088,7 +7888,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -8100,13 +7900,13 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8133,13 +7933,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>20</v>
+        <v>407</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8157,13 +7957,13 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
@@ -8172,21 +7972,21 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8197,7 +7997,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8206,19 +8006,23 @@
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>366</v>
+        <v>186</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8242,13 +8046,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>20</v>
+        <v>415</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8266,13 +8070,13 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
@@ -8281,21 +8085,21 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>20</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8318,13 +8122,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>419</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>432</v>
+        <v>50</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8375,7 +8179,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8390,1226 +8194,17 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>482</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM70">
+  <autoFilter ref="A1:AM59">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9619,7 +8214,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI58">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -355,7 +355,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -619,7 +619,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -719,7 +719,7 @@
     <t>Specimen.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>Specimen.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Substance|Location)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Device|4.0.1|Substance|4.0.1|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
     <t>Specimen.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -879,7 +879,7 @@
     <t>Specimen.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -946,7 +946,7 @@
     <t>Specimen.collection.collector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1003,7 +1003,7 @@
     <t>Specimen.collection.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1031,7 +1031,7 @@
     <t>The  technique that is used to perform the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method|4.0.1</t>
   </si>
   <si>
     <t>.methodCode</t>
@@ -1055,7 +1055,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1137,13 +1137,13 @@
     <t>Type indicating the technique used to process the specimen.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
+    <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure|4.0.1</t>
   </si>
   <si>
     <t>Specimen.processing.additive</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Substance)
+    <t xml:space="preserve">Reference(Substance|4.0.1)
 </t>
   </si>
   <si>
@@ -1225,7 +1225,7 @@
     <t>Type of specimen container.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
+    <t>http://hl7.org/fhir/ValueSet/specimen-container-type|4.0.1</t>
   </si>
   <si>
     <t>SPM-27</t>
@@ -1265,7 +1265,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Substance)</t>
+Reference(Substance|4.0.1)</t>
   </si>
   <si>
     <t>Additive associated with container</t>
@@ -1662,7 +1662,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.3125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.53515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1677,7 +1677,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.75" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,6 +460,70 @@
 </t>
   </si>
   <si>
+    <t>Specimen.extension:cancerAnatomicLocation</t>
+  </si>
+  <si>
+    <t>cancerAnatomicLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/CancerBiospecimenAnatomicLocation}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/cancer-biospecimen-anatomic-location</t>
+  </si>
+  <si>
+    <t>cancer biospecimen anatomic location for cqdg project</t>
+  </si>
+  <si>
+    <t>Specimen.extension:tumorHistologicalType</t>
+  </si>
+  <si>
+    <t>tumorHistologicalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/TumorHistologicalType}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/tumor-histological-type</t>
+  </si>
+  <si>
+    <t>tumor histological type for cqdg project</t>
+  </si>
+  <si>
+    <t>Specimen.extension:cancerBiospecimenType</t>
+  </si>
+  <si>
+    <t>cancerBiospecimenType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/CancerBiospecimenType}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/CancerBiospecimenType</t>
+  </si>
+  <si>
+    <t>Extension for selected NCIT codes from NCI Thesaurus.</t>
+  </si>
+  <si>
+    <t>Specimen.extension:tumorNormalDesignation</t>
+  </si>
+  <si>
+    <t>tumorNormalDesignation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.cqdg.ca/StructureDefinition/TumorNormalDesignation}
+</t>
+  </si>
+  <si>
+    <t>Ferlab.bio Extension/tumor-normal-designation</t>
+  </si>
+  <si>
+    <t>tumor normal designation for cqdg project</t>
+  </si>
+  <si>
     <t>Specimen.modifierExtension</t>
   </si>
   <si>
@@ -795,13 +859,7 @@
     <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of the specimen.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
+    <t>https://fhir.cqdg.ca/ValueSet/cqdg-specimen-tissue-source-vs</t>
   </si>
   <si>
     <t>.code</t>
@@ -1026,6 +1084,9 @@
   </si>
   <si>
     <t>A coded value specifying the technique that is used to perform the procedure.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>The  technique that is used to perform the procedure.</t>
@@ -1643,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM59"/>
+  <dimension ref="A1:AM63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1652,9 +1713,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.40234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.23828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.40234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.76171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1662,7 +1723,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.53515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2597,7 +2658,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2807,43 +2868,41 @@
         <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>20</v>
       </c>
@@ -2891,7 +2950,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2900,13 +2959,13 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>20</v>
@@ -2917,22 +2976,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
       </c>
@@ -2940,16 +3001,16 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2988,17 +3049,19 @@
         <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AC12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3007,37 +3070,37 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>84</v>
@@ -3049,16 +3112,16 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3109,7 +3172,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3118,35 +3181,37 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>
@@ -3161,13 +3226,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3218,22 +3283,22 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -3244,14 +3309,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3264,7 +3329,7 @@
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>20</v>
@@ -3273,15 +3338,17 @@
         <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3317,19 +3384,19 @@
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3344,7 +3411,7 @@
         <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -3355,10 +3422,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3366,35 +3433,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3418,37 +3481,35 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -3457,29 +3518,31 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>127</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>84</v>
@@ -3494,20 +3557,16 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3531,13 +3590,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3555,13 +3614,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -3570,21 +3629,21 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3592,7 +3651,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>84</v>
@@ -3604,23 +3663,19 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>20</v>
       </c>
@@ -3629,10 +3684,10 @@
         <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>20</v>
@@ -3668,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3680,35 +3735,35 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3717,19 +3772,19 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3743,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>20</v>
@@ -3767,48 +3822,48 @@
         <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3825,22 +3880,26 @@
         <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
       </c>
@@ -3864,13 +3923,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3888,7 +3947,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3903,21 +3962,21 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3940,18 +3999,20 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -3975,13 +4036,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -3999,7 +4060,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4014,21 +4075,21 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4036,7 +4097,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>84</v>
@@ -4051,16 +4112,20 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
       </c>
@@ -4069,10 +4134,10 @@
         <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>20</v>
@@ -4108,7 +4173,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4123,21 +4188,21 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4154,22 +4219,22 @@
         <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4183,7 +4248,7 @@
         <v>20</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>20</v>
@@ -4195,13 +4260,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4219,7 +4284,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4234,21 +4299,21 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4271,17 +4336,15 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4306,13 +4369,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4330,7 +4393,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4345,21 +4408,21 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4382,18 +4445,18 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4441,7 +4504,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4456,21 +4519,21 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4493,13 +4556,13 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4550,7 +4613,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4565,21 +4628,21 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4590,28 +4653,28 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4637,13 +4700,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4661,13 +4724,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -4676,21 +4739,21 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4701,7 +4764,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4710,19 +4773,19 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4748,13 +4811,11 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4772,13 +4833,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -4787,21 +4848,21 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4821,19 +4882,21 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -4881,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4896,21 +4959,21 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4930,16 +4993,16 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4990,7 +5053,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5002,28 +5065,28 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5042,16 +5105,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5101,7 +5164,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5113,10 +5176,10 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>166</v>
+        <v>294</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -5127,14 +5190,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5147,26 +5210,24 @@
         <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5214,7 +5275,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5226,24 +5287,24 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>127</v>
+        <v>300</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>20</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5263,16 +5324,16 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5323,7 +5384,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5338,21 +5399,21 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5372,16 +5433,16 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5432,7 +5493,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5444,35 +5505,35 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5481,18 +5542,20 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5541,25 +5604,25 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
@@ -5567,42 +5630,46 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5650,36 +5717,36 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>320</v>
+        <v>127</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5699,16 +5766,16 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5735,13 +5802,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5759,7 +5826,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5774,21 +5841,21 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5808,20 +5875,18 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>186</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -5846,13 +5911,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -5870,7 +5935,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5885,21 +5950,21 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5922,20 +5987,16 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -5959,13 +6020,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -5983,7 +6044,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6001,18 +6062,18 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>345</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6023,7 +6084,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6035,13 +6096,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6092,13 +6153,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6107,21 +6168,21 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6144,13 +6205,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6177,13 +6238,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6201,7 +6262,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6213,35 +6274,35 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6253,16 +6314,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>169</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>146</v>
+        <v>351</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6288,13 +6349,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6312,71 +6373,71 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>172</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>166</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>20</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>146</v>
+        <v>360</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>147</v>
+        <v>361</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6401,13 +6462,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6425,36 +6486,36 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6465,7 +6526,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6477,13 +6538,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6534,13 +6595,13 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
@@ -6549,7 +6610,7 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
@@ -6560,10 +6621,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6586,13 +6647,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
+        <v>183</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>359</v>
+        <v>184</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6619,13 +6680,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6643,7 +6704,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>185</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6655,10 +6716,10 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
@@ -6669,14 +6730,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6695,15 +6756,17 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>189</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6752,7 +6815,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>362</v>
+        <v>192</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6764,56 +6827,60 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>186</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -6861,22 +6928,22 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
@@ -6887,10 +6954,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6901,7 +6968,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -6913,13 +6980,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>286</v>
+        <v>182</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6970,13 +7037,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -6985,7 +7052,7 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
@@ -6996,10 +7063,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7022,13 +7089,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>163</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>164</v>
+        <v>378</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7055,13 +7122,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7079,7 +7146,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>165</v>
+        <v>376</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7091,10 +7158,10 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
@@ -7105,14 +7172,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7131,17 +7198,15 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7190,7 +7255,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>172</v>
+        <v>381</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7202,60 +7267,56 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>166</v>
+        <v>385</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>129</v>
+        <v>324</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>295</v>
+        <v>388</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7303,22 +7364,22 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>127</v>
+        <v>327</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>20</v>
@@ -7329,10 +7390,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7352,16 +7413,16 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7412,7 +7473,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7427,21 +7488,21 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>155</v>
+        <v>393</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7464,13 +7525,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>384</v>
+        <v>184</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7521,7 +7582,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>185</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7533,10 +7594,10 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>385</v>
+        <v>186</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>20</v>
@@ -7547,21 +7608,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7573,15 +7634,17 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>189</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -7606,13 +7669,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -7630,68 +7693,72 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>386</v>
+        <v>192</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>391</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -7739,28 +7806,28 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>392</v>
+        <v>315</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>395</v>
+        <v>127</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>396</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" hidden="true">
@@ -7779,7 +7846,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -7788,10 +7855,10 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>398</v>
@@ -7854,7 +7921,7 @@
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
@@ -7863,21 +7930,21 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>401</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7900,13 +7967,13 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7933,13 +8000,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>406</v>
+        <v>20</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>407</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -7957,7 +8024,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7972,21 +8039,21 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7997,7 +8064,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8006,23 +8073,19 @@
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8046,13 +8109,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8070,13 +8133,13 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
@@ -8085,21 +8148,21 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8110,7 +8173,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8122,13 +8185,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>50</v>
+        <v>412</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8179,13 +8242,13 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
@@ -8194,17 +8257,457 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="B61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>422</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM59">
+  <autoFilter ref="A1:AM63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8214,7 +8717,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2752,7 +2752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -8708,12 +8708,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM63">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-cqdg-specimen.xlsx
+++ b/docs/StructureDefinition-cqdg-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
